--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="21">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -67,6 +67,15 @@
   <si>
     <t>Delete a Location</t>
   </si>
+  <si>
+    <t>Create a notification</t>
+  </si>
+  <si>
+    <t>05.12.22</t>
+  </si>
+  <si>
+    <t>Update a notification</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2244,6 +2253,216 @@
         <v>15</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="25">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -76,6 +76,18 @@
   <si>
     <t>Update a notification</t>
   </si>
+  <si>
+    <t>13.12.22</t>
+  </si>
+  <si>
+    <t>Create a subject categories</t>
+  </si>
+  <si>
+    <t>Update a subject categories</t>
+  </si>
+  <si>
+    <t>Delete a subject categories</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2463,6 +2475,1112 @@
         <v>19</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>24</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>18</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="25">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -131,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3581,6 +3581,524 @@
         <v>21</v>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>18</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>18</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>20</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>13</v>
+      </c>
+      <c r="B262" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>16</v>
+      </c>
+      <c r="B267" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>17</v>
+      </c>
+      <c r="B268" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>14</v>
+      </c>
+      <c r="B272" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>17</v>
+      </c>
+      <c r="B274" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>14</v>
+      </c>
+      <c r="B275" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>16</v>
+      </c>
+      <c r="B276" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>17</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>14</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>16</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>17</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>22</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="27">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -88,6 +88,12 @@
   <si>
     <t>Delete a subject categories</t>
   </si>
+  <si>
+    <t>19.12.22</t>
+  </si>
+  <si>
+    <t>20.12.22</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4099,6 +4105,762 @@
         <v>21</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>22</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>23</v>
+      </c>
+      <c r="B288" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>24</v>
+      </c>
+      <c r="B289" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>22</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>23</v>
+      </c>
+      <c r="B291" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>24</v>
+      </c>
+      <c r="B293" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>20</v>
+      </c>
+      <c r="B294" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>20</v>
+      </c>
+      <c r="B295" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>18</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>20</v>
+      </c>
+      <c r="B297" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>20</v>
+      </c>
+      <c r="B298" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>18</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>20</v>
+      </c>
+      <c r="B300" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2</v>
+      </c>
+      <c r="D300" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>20</v>
+      </c>
+      <c r="B301" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>18</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>20</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>18</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>20</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>20</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" t="s">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>7</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
+        <v>2</v>
+      </c>
+      <c r="D307" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>9</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" t="s">
+        <v>2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" t="s">
+        <v>8</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>7</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>11</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" t="s">
+        <v>2</v>
+      </c>
+      <c r="D318" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>16</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+      <c r="B323" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>16</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>17</v>
+      </c>
+      <c r="B325" t="s">
+        <v>8</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2</v>
+      </c>
+      <c r="D325" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>14</v>
+      </c>
+      <c r="B326" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2</v>
+      </c>
+      <c r="D326" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>16</v>
+      </c>
+      <c r="B327" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2</v>
+      </c>
+      <c r="D327" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>17</v>
+      </c>
+      <c r="B328" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2</v>
+      </c>
+      <c r="D328" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" t="s">
+        <v>2</v>
+      </c>
+      <c r="D329" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>16</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>2</v>
+      </c>
+      <c r="D330" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>17</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>14</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>16</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>17</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>22</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>23</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2</v>
+      </c>
+      <c r="D336" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>24</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
